--- a/biology/Médecine/Institut_Eijkman_de_biologie_moléculaire/Institut_Eijkman_de_biologie_moléculaire.xlsx
+++ b/biology/Médecine/Institut_Eijkman_de_biologie_moléculaire/Institut_Eijkman_de_biologie_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_Eijkman_de_biologie_mol%C3%A9culaire</t>
+          <t>Institut_Eijkman_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut Eijkman de biologie moléculaire est un institut de recherche à but non lucratif financé par le gouvernement indonésien. L'institut mène des travaux de recherches de base en biologie moléculaire médicale et en biotechnologie. Ses locaux, situés dans le centre de Jakarta, sont ceux de l'ancien Eijkman Instituut fondé à l'époque coloniale, et fermé dans les années 1960 à cause d'un manque de fonds.
